--- a/Template/Export/Sari_R3_9.xlsx
+++ b/Template/Export/Sari_R3_9.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="15480" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$P$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$P$62</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -33,9 +36,6 @@
     <t xml:space="preserve">Año epidemiológico: </t>
   </si>
   <si>
-    <t>NÚMERO DE CASOS Y HOSPITALIZACIONES POR IRAG</t>
-  </si>
-  <si>
     <t>NACIONAL</t>
   </si>
   <si>
@@ -45,9 +45,6 @@
     <t>Entre 5 a 19</t>
   </si>
   <si>
-    <t>Menor a 2 ano</t>
-  </si>
-  <si>
     <t>Entre 20 a 39</t>
   </si>
   <si>
@@ -55,6 +52,12 @@
   </si>
   <si>
     <t>Mayor a 60</t>
+  </si>
+  <si>
+    <t>Menor a 2 años</t>
+  </si>
+  <si>
+    <t>CASOS POR IRAG POR GRUPOS DE EDAD Y SE</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -194,30 +197,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -246,17 +225,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -270,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,7 +248,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -293,11 +260,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -310,35 +312,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -353,6 +330,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -360,7 +340,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-HN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -382,13 +362,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-HN"/>
-              <a:t>NÚMERO</a:t>
+              <a:t>CASOS POR IRAG POR GRUPOS DE EDAD Y SE</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="es-HN" baseline="0"/>
-              <a:t> DE CASOS IRAG POR GRUPO DE EDAD Y SE</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-HN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -403,42 +378,33 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Hoja1!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Menor a 2 ano</c:v>
+                  <c:v>Menor a 2 años</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$7:$B$8</c:f>
+              <c:f>Hoja1!$C$7:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$C$7:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="53"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Hoja1!$D$6</c:f>
@@ -451,28 +417,19 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$7:$B$8</c:f>
+              <c:f>Hoja1!$D$7:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$D$7:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="53"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Hoja1!$E$6</c:f>
@@ -485,28 +442,19 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Hoja1!$B$7:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$7:$E$8</c:f>
+              <c:f>Hoja1!$E$7:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="53"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Hoja1!$F$6</c:f>
@@ -519,28 +467,19 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$7:$B$8</c:f>
+              <c:f>Hoja1!$F$7:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$F$7:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="53"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Hoja1!$G$6</c:f>
@@ -553,28 +492,19 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$7:$B$8</c:f>
+              <c:f>Hoja1!$G$7:$G$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$G$7:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="53"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Hoja1!$H$6</c:f>
@@ -587,21 +517,12 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$7:$B$8</c:f>
+              <c:f>Hoja1!$H$7:$H$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$H$7:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="53"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -616,11 +537,54 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="152319872"/>
-        <c:axId val="152321408"/>
+        <c:axId val="220769328"/>
+        <c:axId val="220765520"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$B$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Semana epidemiológica</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$B$7:$B$59</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="53"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152319872"/>
+        <c:axId val="220769328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,7 +594,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152321408"/>
+        <c:crossAx val="220765520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -638,7 +602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152321408"/>
+        <c:axId val="220765520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,7 +618,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="152319872"/>
+        <c:crossAx val="220769328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -680,16 +644,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>409573</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352423</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152248</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>189600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -712,7 +676,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -754,7 +718,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -789,7 +753,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -998,74 +962,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O9"/>
+  <dimension ref="B1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="15" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14" style="22" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="21" customWidth="1"/>
+    <col min="6" max="8" width="12.140625" style="21" customWidth="1"/>
+    <col min="9" max="15" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+    </row>
+    <row r="3" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-    </row>
-    <row r="3" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="C3"/>
+      <c r="D3" s="1"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3"/>
@@ -1075,103 +1048,919 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:15" s="9" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="2:15" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-    </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="28"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-    </row>
-    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+      <c r="H8" s="20"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+    </row>
+    <row r="59" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+    </row>
+    <row r="60" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="8">
-        <f>SUM(C7:C8)</f>
+      <c r="C60" s="7">
+        <f>SUM(C7:C59)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="8">
-        <f>SUM(D7:D8)</f>
+      <c r="D60" s="7">
+        <f t="shared" ref="D60:H60" si="0">SUM(D7:D59)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="22">
-        <f>SUM(E7:E8)</f>
+      <c r="E60" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="22">
-        <f>SUM(F7:F8)</f>
+      <c r="F60" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="22">
-        <f>SUM(G7:G8)</f>
+      <c r="G60" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="22">
-        <f>SUM(H7:H8)</f>
+      <c r="H60" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
     </row>
   </sheetData>
   <sortState ref="B21:C33">
@@ -1187,28 +1976,4 @@
   <pageSetup scale="62" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Template/Export/Sari_R3_9.xlsx
+++ b/Template/Export/Sari_R3_9.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$P$62</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -537,8 +537,8 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="220769328"/>
-        <c:axId val="220765520"/>
+        <c:axId val="2072274512"/>
+        <c:axId val="2072275600"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -575,6 +575,165 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="53"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>53</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -584,7 +743,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220769328"/>
+        <c:axId val="2072274512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,7 +753,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220765520"/>
+        <c:crossAx val="2072275600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -602,13 +761,39 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220765520"/>
+        <c:axId val="2072275600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Número de casos SARI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.8447376363557971E-3"/>
+              <c:y val="0.32036103610361039"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -618,7 +803,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="220769328"/>
+        <c:crossAx val="2072274512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -965,7 +1150,7 @@
   <dimension ref="B1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1237,7 @@
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1079,7 +1264,9 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="13"/>
@@ -1095,7 +1282,9 @@
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
+      <c r="B8" s="16">
+        <v>2</v>
+      </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="14"/>
@@ -1111,7 +1300,9 @@
       <c r="O8" s="12"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
+      <c r="B9" s="16">
+        <v>3</v>
+      </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="14"/>
@@ -1127,7 +1318,9 @@
       <c r="O9" s="12"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
+      <c r="B10" s="16">
+        <v>4</v>
+      </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="14"/>
@@ -1143,7 +1336,9 @@
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
+      <c r="B11" s="16">
+        <v>5</v>
+      </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="14"/>
@@ -1159,7 +1354,9 @@
       <c r="O11" s="12"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
+      <c r="B12" s="16">
+        <v>6</v>
+      </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="14"/>
@@ -1175,7 +1372,9 @@
       <c r="O12" s="12"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
+      <c r="B13" s="16">
+        <v>7</v>
+      </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="14"/>
@@ -1191,7 +1390,9 @@
       <c r="O13" s="12"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
+      <c r="B14" s="16">
+        <v>8</v>
+      </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="14"/>
@@ -1207,7 +1408,9 @@
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
+      <c r="B15" s="16">
+        <v>9</v>
+      </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="14"/>
@@ -1223,7 +1426,9 @@
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
+      <c r="B16" s="16">
+        <v>10</v>
+      </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="14"/>
@@ -1239,7 +1444,9 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
+      <c r="B17" s="16">
+        <v>11</v>
+      </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="14"/>
@@ -1255,7 +1462,9 @@
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
+      <c r="B18" s="16">
+        <v>12</v>
+      </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="14"/>
@@ -1271,7 +1480,9 @@
       <c r="O18" s="12"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
+      <c r="B19" s="16">
+        <v>13</v>
+      </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="14"/>
@@ -1287,7 +1498,9 @@
       <c r="O19" s="12"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
+      <c r="B20" s="16">
+        <v>14</v>
+      </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="14"/>
@@ -1303,7 +1516,9 @@
       <c r="O20" s="12"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
+      <c r="B21" s="16">
+        <v>15</v>
+      </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="14"/>
@@ -1319,7 +1534,9 @@
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
+      <c r="B22" s="16">
+        <v>16</v>
+      </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="14"/>
@@ -1335,7 +1552,9 @@
       <c r="O22" s="12"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
+      <c r="B23" s="16">
+        <v>17</v>
+      </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="14"/>
@@ -1351,7 +1570,9 @@
       <c r="O23" s="12"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
+      <c r="B24" s="16">
+        <v>18</v>
+      </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="14"/>
@@ -1367,7 +1588,9 @@
       <c r="O24" s="12"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
+      <c r="B25" s="16">
+        <v>19</v>
+      </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="14"/>
@@ -1383,7 +1606,9 @@
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
+      <c r="B26" s="16">
+        <v>20</v>
+      </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="14"/>
@@ -1399,7 +1624,9 @@
       <c r="O26" s="12"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
+      <c r="B27" s="16">
+        <v>21</v>
+      </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="14"/>
@@ -1415,7 +1642,9 @@
       <c r="O27" s="12"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
+      <c r="B28" s="16">
+        <v>22</v>
+      </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="14"/>
@@ -1431,7 +1660,9 @@
       <c r="O28" s="12"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
+      <c r="B29" s="16">
+        <v>23</v>
+      </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="14"/>
@@ -1447,7 +1678,9 @@
       <c r="O29" s="12"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
+      <c r="B30" s="16">
+        <v>24</v>
+      </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="14"/>
@@ -1463,7 +1696,9 @@
       <c r="O30" s="12"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
+      <c r="B31" s="16">
+        <v>25</v>
+      </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="14"/>
@@ -1479,7 +1714,9 @@
       <c r="O31" s="12"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
+      <c r="B32" s="16">
+        <v>26</v>
+      </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="14"/>
@@ -1495,7 +1732,9 @@
       <c r="O32" s="12"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
+      <c r="B33" s="16">
+        <v>27</v>
+      </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="14"/>
@@ -1511,7 +1750,9 @@
       <c r="O33" s="12"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
+      <c r="B34" s="16">
+        <v>28</v>
+      </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="14"/>
@@ -1527,7 +1768,9 @@
       <c r="O34" s="12"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
+      <c r="B35" s="16">
+        <v>29</v>
+      </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="14"/>
@@ -1543,7 +1786,9 @@
       <c r="O35" s="12"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
+      <c r="B36" s="16">
+        <v>30</v>
+      </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
       <c r="E36" s="14"/>
@@ -1559,7 +1804,9 @@
       <c r="O36" s="12"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
+      <c r="B37" s="16">
+        <v>31</v>
+      </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="14"/>
@@ -1575,7 +1822,9 @@
       <c r="O37" s="12"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
+      <c r="B38" s="16">
+        <v>32</v>
+      </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="14"/>
@@ -1591,7 +1840,9 @@
       <c r="O38" s="12"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
+      <c r="B39" s="16">
+        <v>33</v>
+      </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="14"/>
@@ -1607,7 +1858,9 @@
       <c r="O39" s="12"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
+      <c r="B40" s="16">
+        <v>34</v>
+      </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="14"/>
@@ -1623,7 +1876,9 @@
       <c r="O40" s="12"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
+      <c r="B41" s="16">
+        <v>35</v>
+      </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="14"/>
@@ -1639,7 +1894,9 @@
       <c r="O41" s="12"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
+      <c r="B42" s="16">
+        <v>36</v>
+      </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="14"/>
@@ -1655,7 +1912,9 @@
       <c r="O42" s="12"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
+      <c r="B43" s="16">
+        <v>37</v>
+      </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
       <c r="E43" s="14"/>
@@ -1671,7 +1930,9 @@
       <c r="O43" s="12"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
+      <c r="B44" s="16">
+        <v>38</v>
+      </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
       <c r="E44" s="14"/>
@@ -1687,7 +1948,9 @@
       <c r="O44" s="12"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
+      <c r="B45" s="16">
+        <v>39</v>
+      </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="14"/>
@@ -1703,7 +1966,9 @@
       <c r="O45" s="12"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="16"/>
+      <c r="B46" s="16">
+        <v>40</v>
+      </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="14"/>
@@ -1719,7 +1984,9 @@
       <c r="O46" s="12"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
+      <c r="B47" s="16">
+        <v>41</v>
+      </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
       <c r="E47" s="14"/>
@@ -1735,7 +2002,9 @@
       <c r="O47" s="12"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
+      <c r="B48" s="16">
+        <v>42</v>
+      </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="14"/>
@@ -1751,7 +2020,9 @@
       <c r="O48" s="12"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
+      <c r="B49" s="16">
+        <v>43</v>
+      </c>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
       <c r="E49" s="14"/>
@@ -1767,7 +2038,9 @@
       <c r="O49" s="12"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
+      <c r="B50" s="16">
+        <v>44</v>
+      </c>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
       <c r="E50" s="14"/>
@@ -1783,7 +2056,9 @@
       <c r="O50" s="12"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
+      <c r="B51" s="16">
+        <v>45</v>
+      </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
       <c r="E51" s="14"/>
@@ -1799,7 +2074,9 @@
       <c r="O51" s="12"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
+      <c r="B52" s="16">
+        <v>46</v>
+      </c>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
       <c r="E52" s="14"/>
@@ -1815,7 +2092,9 @@
       <c r="O52" s="12"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
+      <c r="B53" s="16">
+        <v>47</v>
+      </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
       <c r="E53" s="14"/>
@@ -1831,7 +2110,9 @@
       <c r="O53" s="12"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
+      <c r="B54" s="16">
+        <v>48</v>
+      </c>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
       <c r="E54" s="14"/>
@@ -1847,7 +2128,9 @@
       <c r="O54" s="12"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
+      <c r="B55" s="16">
+        <v>49</v>
+      </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
       <c r="E55" s="14"/>
@@ -1863,7 +2146,9 @@
       <c r="O55" s="12"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
+      <c r="B56" s="16">
+        <v>50</v>
+      </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
       <c r="E56" s="14"/>
@@ -1879,7 +2164,9 @@
       <c r="O56" s="12"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
+      <c r="B57" s="16">
+        <v>51</v>
+      </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="14"/>
@@ -1895,7 +2182,9 @@
       <c r="O57" s="12"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
+      <c r="B58" s="16">
+        <v>52</v>
+      </c>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="14"/>
@@ -1911,7 +2200,9 @@
       <c r="O58" s="12"/>
     </row>
     <row r="59" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="16"/>
+      <c r="B59" s="16">
+        <v>53</v>
+      </c>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
       <c r="E59" s="14"/>

--- a/Template/Export/Sari_R3_9.xlsx
+++ b/Template/Export/Sari_R3_9.xlsx
@@ -537,8 +537,8 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="2072274512"/>
-        <c:axId val="2072275600"/>
+        <c:axId val="1469798272"/>
+        <c:axId val="1469794464"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -743,7 +743,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2072274512"/>
+        <c:axId val="1469798272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,7 +753,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2072275600"/>
+        <c:crossAx val="1469794464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -761,7 +761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2072275600"/>
+        <c:axId val="1469794464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,7 +779,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1100"/>
-                  <a:t>Número de casos SARI</a:t>
+                  <a:t>Número de casos IRAG</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -803,7 +803,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2072274512"/>
+        <c:crossAx val="1469798272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1149,9 +1149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:O1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Template/Export/Sari_R3_9.xlsx
+++ b/Template/Export/Sari_R3_9.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$P$62</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -537,8 +537,8 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="1469798272"/>
-        <c:axId val="1469794464"/>
+        <c:axId val="1877564736"/>
+        <c:axId val="1877571808"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -743,7 +743,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1469798272"/>
+        <c:axId val="1877564736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,7 +753,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1469794464"/>
+        <c:crossAx val="1877571808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -761,7 +761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1469794464"/>
+        <c:axId val="1877571808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,9 +803,10 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1469798272"/>
+        <c:crossAx val="1877564736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
